--- a/BDs/BDXL/rep_BDXL_3.00w.xlsx
+++ b/BDs/BDXL/rep_BDXL_3.00w.xlsx
@@ -12,13 +12,14 @@
     <sheet name="均值偏差(%)方差" sheetId="3" r:id="rId3"/>
     <sheet name="门概率图" sheetId="4" r:id="rId4"/>
     <sheet name="方向图" sheetId="5" r:id="rId5"/>
+    <sheet name="置信区间验证" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -184,6 +185,165 @@
   <si>
     <t>Dir_combined_std(%)</t>
   </si>
+  <si>
+    <t>实验 1 - Doors</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>频数</t>
+  </si>
+  <si>
+    <t>估计概率</t>
+  </si>
+  <si>
+    <t>下界</t>
+  </si>
+  <si>
+    <t>上界</t>
+  </si>
+  <si>
+    <t>误差幅度</t>
+  </si>
+  <si>
+    <t>≤1%</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>实验 1 - Directions</t>
+  </si>
+  <si>
+    <t>Up-Left</t>
+  </si>
+  <si>
+    <t>Up-Right</t>
+  </si>
+  <si>
+    <t>Down-Right</t>
+  </si>
+  <si>
+    <t>Down-Left</t>
+  </si>
+  <si>
+    <t>实验 1a - Doors</t>
+  </si>
+  <si>
+    <t>实验 1a - Directions</t>
+  </si>
+  <si>
+    <t>实验 1b - Doors</t>
+  </si>
+  <si>
+    <t>实验 1b - Directions</t>
+  </si>
+  <si>
+    <t>实验 1c - Doors</t>
+  </si>
+  <si>
+    <t>实验 1c - Directions</t>
+  </si>
+  <si>
+    <t>实验 1d - Doors</t>
+  </si>
+  <si>
+    <t>实验 1d - Directions</t>
+  </si>
+  <si>
+    <t>实验 3 - Doors</t>
+  </si>
+  <si>
+    <t>实验 3 - Directions</t>
+  </si>
+  <si>
+    <t>实验 3a - Doors</t>
+  </si>
+  <si>
+    <t>实验 3a - Directions</t>
+  </si>
+  <si>
+    <t>实验 3b - Doors</t>
+  </si>
+  <si>
+    <t>实验 3b - Directions</t>
+  </si>
+  <si>
+    <t>实验 3c - Doors</t>
+  </si>
+  <si>
+    <t>实验 3c - Directions</t>
+  </si>
+  <si>
+    <t>实验 3d - Doors</t>
+  </si>
+  <si>
+    <t>实验 3d - Directions</t>
+  </si>
+  <si>
+    <t>实验 5 - Doors</t>
+  </si>
+  <si>
+    <t>实验 5 - Directions</t>
+  </si>
+  <si>
+    <t>实验 5a - Doors</t>
+  </si>
+  <si>
+    <t>实验 5a - Directions</t>
+  </si>
+  <si>
+    <t>实验 5b - Doors</t>
+  </si>
+  <si>
+    <t>实验 5b - Directions</t>
+  </si>
+  <si>
+    <t>实验 5c - Doors</t>
+  </si>
+  <si>
+    <t>实验 5c - Directions</t>
+  </si>
+  <si>
+    <t>实验 5d - Doors</t>
+  </si>
+  <si>
+    <t>实验 5d - Directions</t>
+  </si>
+  <si>
+    <t>实验 7 - Doors</t>
+  </si>
+  <si>
+    <t>实验 7 - Directions</t>
+  </si>
+  <si>
+    <t>实验 7a - Doors</t>
+  </si>
+  <si>
+    <t>实验 7a - Directions</t>
+  </si>
+  <si>
+    <t>实验 7b - Doors</t>
+  </si>
+  <si>
+    <t>实验 7b - Directions</t>
+  </si>
+  <si>
+    <t>实验 7c - Doors</t>
+  </si>
+  <si>
+    <t>实验 7c - Directions</t>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -274,6 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5277,4 +5444,6330 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G359"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="7" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>9200</v>
+      </c>
+      <c r="C3">
+        <v>0.306534</v>
+      </c>
+      <c r="D3">
+        <v>0.299927</v>
+      </c>
+      <c r="E3">
+        <v>0.313221</v>
+      </c>
+      <c r="F3">
+        <v>0.006687</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>9221</v>
+      </c>
+      <c r="C4">
+        <v>0.307234</v>
+      </c>
+      <c r="D4">
+        <v>0.300623</v>
+      </c>
+      <c r="E4">
+        <v>0.313924</v>
+      </c>
+      <c r="F4">
+        <v>0.006691</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>9301</v>
+      </c>
+      <c r="C5">
+        <v>0.309899</v>
+      </c>
+      <c r="D5">
+        <v>0.303272</v>
+      </c>
+      <c r="E5">
+        <v>0.316605</v>
+      </c>
+      <c r="F5">
+        <v>0.006706</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>9562</v>
+      </c>
+      <c r="C6">
+        <v>0.318595</v>
+      </c>
+      <c r="D6">
+        <v>0.311916</v>
+      </c>
+      <c r="E6">
+        <v>0.32535</v>
+      </c>
+      <c r="F6">
+        <v>0.006755</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>3387</v>
+      </c>
+      <c r="C10">
+        <v>0.112851</v>
+      </c>
+      <c r="D10">
+        <v>0.107953</v>
+      </c>
+      <c r="E10">
+        <v>0.117942</v>
+      </c>
+      <c r="F10">
+        <v>0.005091</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11">
+        <v>3929</v>
+      </c>
+      <c r="C11">
+        <v>0.13091</v>
+      </c>
+      <c r="D11">
+        <v>0.125678</v>
+      </c>
+      <c r="E11">
+        <v>0.136326</v>
+      </c>
+      <c r="F11">
+        <v>0.005416</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>3512</v>
+      </c>
+      <c r="C12">
+        <v>0.117016</v>
+      </c>
+      <c r="D12">
+        <v>0.112038</v>
+      </c>
+      <c r="E12">
+        <v>0.122185</v>
+      </c>
+      <c r="F12">
+        <v>0.005169</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>3948</v>
+      </c>
+      <c r="C13">
+        <v>0.131543</v>
+      </c>
+      <c r="D13">
+        <v>0.1263</v>
+      </c>
+      <c r="E13">
+        <v>0.13697</v>
+      </c>
+      <c r="F13">
+        <v>0.005427</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>3484</v>
+      </c>
+      <c r="C14">
+        <v>0.116083</v>
+      </c>
+      <c r="D14">
+        <v>0.111123</v>
+      </c>
+      <c r="E14">
+        <v>0.121235</v>
+      </c>
+      <c r="F14">
+        <v>0.005152</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>4122</v>
+      </c>
+      <c r="C15">
+        <v>0.13734</v>
+      </c>
+      <c r="D15">
+        <v>0.131998</v>
+      </c>
+      <c r="E15">
+        <v>0.142864</v>
+      </c>
+      <c r="F15">
+        <v>0.005523</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>3587</v>
+      </c>
+      <c r="C16">
+        <v>0.119515</v>
+      </c>
+      <c r="D16">
+        <v>0.114489</v>
+      </c>
+      <c r="E16">
+        <v>0.12473</v>
+      </c>
+      <c r="F16">
+        <v>0.005215</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17">
+        <v>4044</v>
+      </c>
+      <c r="C17">
+        <v>0.134742</v>
+      </c>
+      <c r="D17">
+        <v>0.129443</v>
+      </c>
+      <c r="E17">
+        <v>0.140222</v>
+      </c>
+      <c r="F17">
+        <v>0.00548</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22">
+        <v>9221</v>
+      </c>
+      <c r="C22">
+        <v>0.307234</v>
+      </c>
+      <c r="D22">
+        <v>0.300623</v>
+      </c>
+      <c r="E22">
+        <v>0.313924</v>
+      </c>
+      <c r="F22">
+        <v>0.006691</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23">
+        <v>9268</v>
+      </c>
+      <c r="C23">
+        <v>0.3088</v>
+      </c>
+      <c r="D23">
+        <v>0.302179</v>
+      </c>
+      <c r="E23">
+        <v>0.315499</v>
+      </c>
+      <c r="F23">
+        <v>0.0067</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24">
+        <v>9268</v>
+      </c>
+      <c r="C24">
+        <v>0.3088</v>
+      </c>
+      <c r="D24">
+        <v>0.302179</v>
+      </c>
+      <c r="E24">
+        <v>0.315499</v>
+      </c>
+      <c r="F24">
+        <v>0.0067</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25">
+        <v>9528</v>
+      </c>
+      <c r="C25">
+        <v>0.317462</v>
+      </c>
+      <c r="D25">
+        <v>0.31079</v>
+      </c>
+      <c r="E25">
+        <v>0.324211</v>
+      </c>
+      <c r="F25">
+        <v>0.006748</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <v>3425</v>
+      </c>
+      <c r="C29">
+        <v>0.114117</v>
+      </c>
+      <c r="D29">
+        <v>0.109195</v>
+      </c>
+      <c r="E29">
+        <v>0.119232</v>
+      </c>
+      <c r="F29">
+        <v>0.005115</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30">
+        <v>3973</v>
+      </c>
+      <c r="C30">
+        <v>0.132376</v>
+      </c>
+      <c r="D30">
+        <v>0.127118</v>
+      </c>
+      <c r="E30">
+        <v>0.137817</v>
+      </c>
+      <c r="F30">
+        <v>0.005441</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31">
+        <v>3586</v>
+      </c>
+      <c r="C31">
+        <v>0.119482</v>
+      </c>
+      <c r="D31">
+        <v>0.114457</v>
+      </c>
+      <c r="E31">
+        <v>0.124696</v>
+      </c>
+      <c r="F31">
+        <v>0.005214</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32">
+        <v>3939</v>
+      </c>
+      <c r="C32">
+        <v>0.131243</v>
+      </c>
+      <c r="D32">
+        <v>0.126005</v>
+      </c>
+      <c r="E32">
+        <v>0.136665</v>
+      </c>
+      <c r="F32">
+        <v>0.005422</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33">
+        <v>3455</v>
+      </c>
+      <c r="C33">
+        <v>0.115117</v>
+      </c>
+      <c r="D33">
+        <v>0.110175</v>
+      </c>
+      <c r="E33">
+        <v>0.12025</v>
+      </c>
+      <c r="F33">
+        <v>0.005134</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>4075</v>
+      </c>
+      <c r="C34">
+        <v>0.135774</v>
+      </c>
+      <c r="D34">
+        <v>0.130459</v>
+      </c>
+      <c r="E34">
+        <v>0.141272</v>
+      </c>
+      <c r="F34">
+        <v>0.005497</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35">
+        <v>3547</v>
+      </c>
+      <c r="C35">
+        <v>0.118182</v>
+      </c>
+      <c r="D35">
+        <v>0.113182</v>
+      </c>
+      <c r="E35">
+        <v>0.123373</v>
+      </c>
+      <c r="F35">
+        <v>0.005191</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36">
+        <v>4013</v>
+      </c>
+      <c r="C36">
+        <v>0.133709</v>
+      </c>
+      <c r="D36">
+        <v>0.128428</v>
+      </c>
+      <c r="E36">
+        <v>0.139172</v>
+      </c>
+      <c r="F36">
+        <v>0.005463</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41">
+        <v>9184</v>
+      </c>
+      <c r="C41">
+        <v>0.306001</v>
+      </c>
+      <c r="D41">
+        <v>0.299398</v>
+      </c>
+      <c r="E41">
+        <v>0.312684</v>
+      </c>
+      <c r="F41">
+        <v>0.006684</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42">
+        <v>9271</v>
+      </c>
+      <c r="C42">
+        <v>0.308899</v>
+      </c>
+      <c r="D42">
+        <v>0.302278</v>
+      </c>
+      <c r="E42">
+        <v>0.3156</v>
+      </c>
+      <c r="F42">
+        <v>0.006701</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43">
+        <v>9285</v>
+      </c>
+      <c r="C43">
+        <v>0.309366</v>
+      </c>
+      <c r="D43">
+        <v>0.302742</v>
+      </c>
+      <c r="E43">
+        <v>0.316069</v>
+      </c>
+      <c r="F43">
+        <v>0.006703</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44">
+        <v>9575</v>
+      </c>
+      <c r="C44">
+        <v>0.319028</v>
+      </c>
+      <c r="D44">
+        <v>0.312347</v>
+      </c>
+      <c r="E44">
+        <v>0.325785</v>
+      </c>
+      <c r="F44">
+        <v>0.006757</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48">
+        <v>3417</v>
+      </c>
+      <c r="C48">
+        <v>0.113851</v>
+      </c>
+      <c r="D48">
+        <v>0.108933</v>
+      </c>
+      <c r="E48">
+        <v>0.11896</v>
+      </c>
+      <c r="F48">
+        <v>0.00511</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49">
+        <v>3920</v>
+      </c>
+      <c r="C49">
+        <v>0.13061</v>
+      </c>
+      <c r="D49">
+        <v>0.125383</v>
+      </c>
+      <c r="E49">
+        <v>0.136021</v>
+      </c>
+      <c r="F49">
+        <v>0.005411</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50">
+        <v>3515</v>
+      </c>
+      <c r="C50">
+        <v>0.117116</v>
+      </c>
+      <c r="D50">
+        <v>0.112136</v>
+      </c>
+      <c r="E50">
+        <v>0.122287</v>
+      </c>
+      <c r="F50">
+        <v>0.005171</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51">
+        <v>3903</v>
+      </c>
+      <c r="C51">
+        <v>0.130044</v>
+      </c>
+      <c r="D51">
+        <v>0.124827</v>
+      </c>
+      <c r="E51">
+        <v>0.135445</v>
+      </c>
+      <c r="F51">
+        <v>0.005401</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52">
+        <v>3499</v>
+      </c>
+      <c r="C52">
+        <v>0.116583</v>
+      </c>
+      <c r="D52">
+        <v>0.111613</v>
+      </c>
+      <c r="E52">
+        <v>0.121744</v>
+      </c>
+      <c r="F52">
+        <v>0.005161</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53">
+        <v>4157</v>
+      </c>
+      <c r="C53">
+        <v>0.138507</v>
+      </c>
+      <c r="D53">
+        <v>0.133145</v>
+      </c>
+      <c r="E53">
+        <v>0.144049</v>
+      </c>
+      <c r="F53">
+        <v>0.005542</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54">
+        <v>3582</v>
+      </c>
+      <c r="C54">
+        <v>0.119348</v>
+      </c>
+      <c r="D54">
+        <v>0.114326</v>
+      </c>
+      <c r="E54">
+        <v>0.12456</v>
+      </c>
+      <c r="F54">
+        <v>0.005212</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55">
+        <v>4020</v>
+      </c>
+      <c r="C55">
+        <v>0.133942</v>
+      </c>
+      <c r="D55">
+        <v>0.128657</v>
+      </c>
+      <c r="E55">
+        <v>0.139409</v>
+      </c>
+      <c r="F55">
+        <v>0.005467</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>9010</v>
+      </c>
+      <c r="C60">
+        <v>0.300213</v>
+      </c>
+      <c r="D60">
+        <v>0.293647</v>
+      </c>
+      <c r="E60">
+        <v>0.306863</v>
+      </c>
+      <c r="F60">
+        <v>0.006649</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>8406</v>
+      </c>
+      <c r="C61">
+        <v>0.280088</v>
+      </c>
+      <c r="D61">
+        <v>0.27366</v>
+      </c>
+      <c r="E61">
+        <v>0.286607</v>
+      </c>
+      <c r="F61">
+        <v>0.006519</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>9177</v>
+      </c>
+      <c r="C62">
+        <v>0.305778</v>
+      </c>
+      <c r="D62">
+        <v>0.299176</v>
+      </c>
+      <c r="E62">
+        <v>0.31246</v>
+      </c>
+      <c r="F62">
+        <v>0.006683</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>8987</v>
+      </c>
+      <c r="C63">
+        <v>0.299447</v>
+      </c>
+      <c r="D63">
+        <v>0.292886</v>
+      </c>
+      <c r="E63">
+        <v>0.306092</v>
+      </c>
+      <c r="F63">
+        <v>0.006645</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67">
+        <v>3372</v>
+      </c>
+      <c r="C67">
+        <v>0.112355</v>
+      </c>
+      <c r="D67">
+        <v>0.107467</v>
+      </c>
+      <c r="E67">
+        <v>0.117436</v>
+      </c>
+      <c r="F67">
+        <v>0.005081</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>4344</v>
+      </c>
+      <c r="C68">
+        <v>0.144742</v>
+      </c>
+      <c r="D68">
+        <v>0.139277</v>
+      </c>
+      <c r="E68">
+        <v>0.150384</v>
+      </c>
+      <c r="F68">
+        <v>0.005642</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69">
+        <v>3086</v>
+      </c>
+      <c r="C69">
+        <v>0.102826</v>
+      </c>
+      <c r="D69">
+        <v>0.09813</v>
+      </c>
+      <c r="E69">
+        <v>0.107719</v>
+      </c>
+      <c r="F69">
+        <v>0.004893</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>4390</v>
+      </c>
+      <c r="C70">
+        <v>0.146275</v>
+      </c>
+      <c r="D70">
+        <v>0.140785</v>
+      </c>
+      <c r="E70">
+        <v>0.151941</v>
+      </c>
+      <c r="F70">
+        <v>0.005666</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71">
+        <v>3274</v>
+      </c>
+      <c r="C71">
+        <v>0.10909</v>
+      </c>
+      <c r="D71">
+        <v>0.104266</v>
+      </c>
+      <c r="E71">
+        <v>0.114108</v>
+      </c>
+      <c r="F71">
+        <v>0.005018</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>4039</v>
+      </c>
+      <c r="C72">
+        <v>0.13458</v>
+      </c>
+      <c r="D72">
+        <v>0.129284</v>
+      </c>
+      <c r="E72">
+        <v>0.140057</v>
+      </c>
+      <c r="F72">
+        <v>0.005478</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73">
+        <v>3212</v>
+      </c>
+      <c r="C73">
+        <v>0.107024</v>
+      </c>
+      <c r="D73">
+        <v>0.102242</v>
+      </c>
+      <c r="E73">
+        <v>0.112002</v>
+      </c>
+      <c r="F73">
+        <v>0.004978</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>4295</v>
+      </c>
+      <c r="C74">
+        <v>0.143109</v>
+      </c>
+      <c r="D74">
+        <v>0.137671</v>
+      </c>
+      <c r="E74">
+        <v>0.148726</v>
+      </c>
+      <c r="F74">
+        <v>0.005616</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79">
+        <v>9031</v>
+      </c>
+      <c r="C79">
+        <v>0.300913</v>
+      </c>
+      <c r="D79">
+        <v>0.294342</v>
+      </c>
+      <c r="E79">
+        <v>0.307567</v>
+      </c>
+      <c r="F79">
+        <v>0.006654</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80">
+        <v>8400</v>
+      </c>
+      <c r="C80">
+        <v>0.279888</v>
+      </c>
+      <c r="D80">
+        <v>0.273462</v>
+      </c>
+      <c r="E80">
+        <v>0.286406</v>
+      </c>
+      <c r="F80">
+        <v>0.006518</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81">
+        <v>9088</v>
+      </c>
+      <c r="C81">
+        <v>0.302812</v>
+      </c>
+      <c r="D81">
+        <v>0.296229</v>
+      </c>
+      <c r="E81">
+        <v>0.309477</v>
+      </c>
+      <c r="F81">
+        <v>0.006665</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82">
+        <v>9020</v>
+      </c>
+      <c r="C82">
+        <v>0.300546</v>
+      </c>
+      <c r="D82">
+        <v>0.293978</v>
+      </c>
+      <c r="E82">
+        <v>0.307198</v>
+      </c>
+      <c r="F82">
+        <v>0.006651</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86">
+        <v>3314</v>
+      </c>
+      <c r="C86">
+        <v>0.110422</v>
+      </c>
+      <c r="D86">
+        <v>0.105572</v>
+      </c>
+      <c r="E86">
+        <v>0.115467</v>
+      </c>
+      <c r="F86">
+        <v>0.005044</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>68</v>
+      </c>
+      <c r="B87">
+        <v>4363</v>
+      </c>
+      <c r="C87">
+        <v>0.145375</v>
+      </c>
+      <c r="D87">
+        <v>0.1399</v>
+      </c>
+      <c r="E87">
+        <v>0.151027</v>
+      </c>
+      <c r="F87">
+        <v>0.005652</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88">
+        <v>3121</v>
+      </c>
+      <c r="C88">
+        <v>0.103992</v>
+      </c>
+      <c r="D88">
+        <v>0.099272</v>
+      </c>
+      <c r="E88">
+        <v>0.108909</v>
+      </c>
+      <c r="F88">
+        <v>0.004917</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89">
+        <v>4226</v>
+      </c>
+      <c r="C89">
+        <v>0.14081</v>
+      </c>
+      <c r="D89">
+        <v>0.13541</v>
+      </c>
+      <c r="E89">
+        <v>0.14639</v>
+      </c>
+      <c r="F89">
+        <v>0.005579</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>65</v>
+      </c>
+      <c r="B90">
+        <v>3313</v>
+      </c>
+      <c r="C90">
+        <v>0.110389</v>
+      </c>
+      <c r="D90">
+        <v>0.10554</v>
+      </c>
+      <c r="E90">
+        <v>0.115433</v>
+      </c>
+      <c r="F90">
+        <v>0.005044</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91">
+        <v>4140</v>
+      </c>
+      <c r="C91">
+        <v>0.137945</v>
+      </c>
+      <c r="D91">
+        <v>0.132592</v>
+      </c>
+      <c r="E91">
+        <v>0.143478</v>
+      </c>
+      <c r="F91">
+        <v>0.005533</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92">
+        <v>3227</v>
+      </c>
+      <c r="C92">
+        <v>0.107524</v>
+      </c>
+      <c r="D92">
+        <v>0.102732</v>
+      </c>
+      <c r="E92">
+        <v>0.112511</v>
+      </c>
+      <c r="F92">
+        <v>0.004988</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93">
+        <v>4308</v>
+      </c>
+      <c r="C93">
+        <v>0.143543</v>
+      </c>
+      <c r="D93">
+        <v>0.138097</v>
+      </c>
+      <c r="E93">
+        <v>0.149166</v>
+      </c>
+      <c r="F93">
+        <v>0.005623</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98">
+        <v>9273</v>
+      </c>
+      <c r="C98">
+        <v>0.308976</v>
+      </c>
+      <c r="D98">
+        <v>0.302355</v>
+      </c>
+      <c r="E98">
+        <v>0.315678</v>
+      </c>
+      <c r="F98">
+        <v>0.006701</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99">
+        <v>9027</v>
+      </c>
+      <c r="C99">
+        <v>0.30078</v>
+      </c>
+      <c r="D99">
+        <v>0.29421</v>
+      </c>
+      <c r="E99">
+        <v>0.307432</v>
+      </c>
+      <c r="F99">
+        <v>0.006653</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100">
+        <v>9004</v>
+      </c>
+      <c r="C100">
+        <v>0.300013</v>
+      </c>
+      <c r="D100">
+        <v>0.293448</v>
+      </c>
+      <c r="E100">
+        <v>0.306661</v>
+      </c>
+      <c r="F100">
+        <v>0.006648</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101">
+        <v>9288</v>
+      </c>
+      <c r="C101">
+        <v>0.309476</v>
+      </c>
+      <c r="D101">
+        <v>0.302851</v>
+      </c>
+      <c r="E101">
+        <v>0.31618</v>
+      </c>
+      <c r="F101">
+        <v>0.006704</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105">
+        <v>3794</v>
+      </c>
+      <c r="C105">
+        <v>0.126416</v>
+      </c>
+      <c r="D105">
+        <v>0.121264</v>
+      </c>
+      <c r="E105">
+        <v>0.131755</v>
+      </c>
+      <c r="F105">
+        <v>0.005338</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106">
+        <v>3710</v>
+      </c>
+      <c r="C106">
+        <v>0.123617</v>
+      </c>
+      <c r="D106">
+        <v>0.118516</v>
+      </c>
+      <c r="E106">
+        <v>0.128906</v>
+      </c>
+      <c r="F106">
+        <v>0.005289</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107">
+        <v>4092</v>
+      </c>
+      <c r="C107">
+        <v>0.136345</v>
+      </c>
+      <c r="D107">
+        <v>0.13102</v>
+      </c>
+      <c r="E107">
+        <v>0.141852</v>
+      </c>
+      <c r="F107">
+        <v>0.005507</v>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>69</v>
+      </c>
+      <c r="B108">
+        <v>3589</v>
+      </c>
+      <c r="C108">
+        <v>0.119585</v>
+      </c>
+      <c r="D108">
+        <v>0.114559</v>
+      </c>
+      <c r="E108">
+        <v>0.124802</v>
+      </c>
+      <c r="F108">
+        <v>0.005216</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>65</v>
+      </c>
+      <c r="B109">
+        <v>3772</v>
+      </c>
+      <c r="C109">
+        <v>0.125683</v>
+      </c>
+      <c r="D109">
+        <v>0.120544</v>
+      </c>
+      <c r="E109">
+        <v>0.131009</v>
+      </c>
+      <c r="F109">
+        <v>0.005326</v>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>70</v>
+      </c>
+      <c r="B110">
+        <v>3475</v>
+      </c>
+      <c r="C110">
+        <v>0.115787</v>
+      </c>
+      <c r="D110">
+        <v>0.110832</v>
+      </c>
+      <c r="E110">
+        <v>0.120933</v>
+      </c>
+      <c r="F110">
+        <v>0.005146</v>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>66</v>
+      </c>
+      <c r="B111">
+        <v>3962</v>
+      </c>
+      <c r="C111">
+        <v>0.132014</v>
+      </c>
+      <c r="D111">
+        <v>0.126763</v>
+      </c>
+      <c r="E111">
+        <v>0.137449</v>
+      </c>
+      <c r="F111">
+        <v>0.005435</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>71</v>
+      </c>
+      <c r="B112">
+        <v>3618</v>
+      </c>
+      <c r="C112">
+        <v>0.120552</v>
+      </c>
+      <c r="D112">
+        <v>0.115507</v>
+      </c>
+      <c r="E112">
+        <v>0.125786</v>
+      </c>
+      <c r="F112">
+        <v>0.005234</v>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>63</v>
+      </c>
+      <c r="B117">
+        <v>9374</v>
+      </c>
+      <c r="C117">
+        <v>0.312342</v>
+      </c>
+      <c r="D117">
+        <v>0.305699</v>
+      </c>
+      <c r="E117">
+        <v>0.319062</v>
+      </c>
+      <c r="F117">
+        <v>0.00672</v>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>64</v>
+      </c>
+      <c r="B118">
+        <v>8947</v>
+      </c>
+      <c r="C118">
+        <v>0.298114</v>
+      </c>
+      <c r="D118">
+        <v>0.291562</v>
+      </c>
+      <c r="E118">
+        <v>0.304751</v>
+      </c>
+      <c r="F118">
+        <v>0.006636</v>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>65</v>
+      </c>
+      <c r="B119">
+        <v>9115</v>
+      </c>
+      <c r="C119">
+        <v>0.303712</v>
+      </c>
+      <c r="D119">
+        <v>0.297123</v>
+      </c>
+      <c r="E119">
+        <v>0.310382</v>
+      </c>
+      <c r="F119">
+        <v>0.00667</v>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120">
+        <v>9201</v>
+      </c>
+      <c r="C120">
+        <v>0.306577</v>
+      </c>
+      <c r="D120">
+        <v>0.299971</v>
+      </c>
+      <c r="E120">
+        <v>0.313265</v>
+      </c>
+      <c r="F120">
+        <v>0.006687</v>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>63</v>
+      </c>
+      <c r="B124">
+        <v>3936</v>
+      </c>
+      <c r="C124">
+        <v>0.131148</v>
+      </c>
+      <c r="D124">
+        <v>0.125911</v>
+      </c>
+      <c r="E124">
+        <v>0.136568</v>
+      </c>
+      <c r="F124">
+        <v>0.00542</v>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>68</v>
+      </c>
+      <c r="B125">
+        <v>3636</v>
+      </c>
+      <c r="C125">
+        <v>0.121152</v>
+      </c>
+      <c r="D125">
+        <v>0.116095</v>
+      </c>
+      <c r="E125">
+        <v>0.126396</v>
+      </c>
+      <c r="F125">
+        <v>0.005245</v>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>64</v>
+      </c>
+      <c r="B126">
+        <v>3881</v>
+      </c>
+      <c r="C126">
+        <v>0.129315</v>
+      </c>
+      <c r="D126">
+        <v>0.124111</v>
+      </c>
+      <c r="E126">
+        <v>0.134704</v>
+      </c>
+      <c r="F126">
+        <v>0.005389</v>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>69</v>
+      </c>
+      <c r="B127">
+        <v>3580</v>
+      </c>
+      <c r="C127">
+        <v>0.119286</v>
+      </c>
+      <c r="D127">
+        <v>0.114264</v>
+      </c>
+      <c r="E127">
+        <v>0.124497</v>
+      </c>
+      <c r="F127">
+        <v>0.005211</v>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>65</v>
+      </c>
+      <c r="B128">
+        <v>3900</v>
+      </c>
+      <c r="C128">
+        <v>0.129948</v>
+      </c>
+      <c r="D128">
+        <v>0.124733</v>
+      </c>
+      <c r="E128">
+        <v>0.135348</v>
+      </c>
+      <c r="F128">
+        <v>0.0054</v>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129">
+        <v>3539</v>
+      </c>
+      <c r="C129">
+        <v>0.117919</v>
+      </c>
+      <c r="D129">
+        <v>0.112924</v>
+      </c>
+      <c r="E129">
+        <v>0.123105</v>
+      </c>
+      <c r="F129">
+        <v>0.005186</v>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>66</v>
+      </c>
+      <c r="B130">
+        <v>3896</v>
+      </c>
+      <c r="C130">
+        <v>0.129815</v>
+      </c>
+      <c r="D130">
+        <v>0.124602</v>
+      </c>
+      <c r="E130">
+        <v>0.135212</v>
+      </c>
+      <c r="F130">
+        <v>0.005397</v>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131">
+        <v>3644</v>
+      </c>
+      <c r="C131">
+        <v>0.121418</v>
+      </c>
+      <c r="D131">
+        <v>0.116357</v>
+      </c>
+      <c r="E131">
+        <v>0.126668</v>
+      </c>
+      <c r="F131">
+        <v>0.00525</v>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>63</v>
+      </c>
+      <c r="B136">
+        <v>9221</v>
+      </c>
+      <c r="C136">
+        <v>0.307244</v>
+      </c>
+      <c r="D136">
+        <v>0.300633</v>
+      </c>
+      <c r="E136">
+        <v>0.313935</v>
+      </c>
+      <c r="F136">
+        <v>0.006691</v>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>64</v>
+      </c>
+      <c r="B137">
+        <v>9087</v>
+      </c>
+      <c r="C137">
+        <v>0.302779</v>
+      </c>
+      <c r="D137">
+        <v>0.296196</v>
+      </c>
+      <c r="E137">
+        <v>0.309444</v>
+      </c>
+      <c r="F137">
+        <v>0.006665</v>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>65</v>
+      </c>
+      <c r="B138">
+        <v>9021</v>
+      </c>
+      <c r="C138">
+        <v>0.30058</v>
+      </c>
+      <c r="D138">
+        <v>0.294011</v>
+      </c>
+      <c r="E138">
+        <v>0.307231</v>
+      </c>
+      <c r="F138">
+        <v>0.006652</v>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>66</v>
+      </c>
+      <c r="B139">
+        <v>9304</v>
+      </c>
+      <c r="C139">
+        <v>0.310009</v>
+      </c>
+      <c r="D139">
+        <v>0.303381</v>
+      </c>
+      <c r="E139">
+        <v>0.316716</v>
+      </c>
+      <c r="F139">
+        <v>0.006707</v>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143">
+        <v>3725</v>
+      </c>
+      <c r="C143">
+        <v>0.124117</v>
+      </c>
+      <c r="D143">
+        <v>0.119006</v>
+      </c>
+      <c r="E143">
+        <v>0.129415</v>
+      </c>
+      <c r="F143">
+        <v>0.005298</v>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>68</v>
+      </c>
+      <c r="B144">
+        <v>3695</v>
+      </c>
+      <c r="C144">
+        <v>0.123117</v>
+      </c>
+      <c r="D144">
+        <v>0.118025</v>
+      </c>
+      <c r="E144">
+        <v>0.128398</v>
+      </c>
+      <c r="F144">
+        <v>0.00528</v>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>64</v>
+      </c>
+      <c r="B145">
+        <v>4124</v>
+      </c>
+      <c r="C145">
+        <v>0.137412</v>
+      </c>
+      <c r="D145">
+        <v>0.132068</v>
+      </c>
+      <c r="E145">
+        <v>0.142936</v>
+      </c>
+      <c r="F145">
+        <v>0.005524</v>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>69</v>
+      </c>
+      <c r="B146">
+        <v>3628</v>
+      </c>
+      <c r="C146">
+        <v>0.120885</v>
+      </c>
+      <c r="D146">
+        <v>0.115834</v>
+      </c>
+      <c r="E146">
+        <v>0.126125</v>
+      </c>
+      <c r="F146">
+        <v>0.00524</v>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>65</v>
+      </c>
+      <c r="B147">
+        <v>3779</v>
+      </c>
+      <c r="C147">
+        <v>0.125916</v>
+      </c>
+      <c r="D147">
+        <v>0.120773</v>
+      </c>
+      <c r="E147">
+        <v>0.131246</v>
+      </c>
+      <c r="F147">
+        <v>0.00533</v>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>70</v>
+      </c>
+      <c r="B148">
+        <v>3525</v>
+      </c>
+      <c r="C148">
+        <v>0.117453</v>
+      </c>
+      <c r="D148">
+        <v>0.112466</v>
+      </c>
+      <c r="E148">
+        <v>0.12263</v>
+      </c>
+      <c r="F148">
+        <v>0.005177</v>
+      </c>
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>66</v>
+      </c>
+      <c r="B149">
+        <v>3985</v>
+      </c>
+      <c r="C149">
+        <v>0.13278</v>
+      </c>
+      <c r="D149">
+        <v>0.127516</v>
+      </c>
+      <c r="E149">
+        <v>0.138228</v>
+      </c>
+      <c r="F149">
+        <v>0.005448</v>
+      </c>
+      <c r="G149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>71</v>
+      </c>
+      <c r="B150">
+        <v>3551</v>
+      </c>
+      <c r="C150">
+        <v>0.118319</v>
+      </c>
+      <c r="D150">
+        <v>0.113316</v>
+      </c>
+      <c r="E150">
+        <v>0.123513</v>
+      </c>
+      <c r="F150">
+        <v>0.005193</v>
+      </c>
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>63</v>
+      </c>
+      <c r="B155">
+        <v>8840</v>
+      </c>
+      <c r="C155">
+        <v>0.294549</v>
+      </c>
+      <c r="D155">
+        <v>0.28802</v>
+      </c>
+      <c r="E155">
+        <v>0.301163</v>
+      </c>
+      <c r="F155">
+        <v>0.006614</v>
+      </c>
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>64</v>
+      </c>
+      <c r="B156">
+        <v>9191</v>
+      </c>
+      <c r="C156">
+        <v>0.306244</v>
+      </c>
+      <c r="D156">
+        <v>0.299639</v>
+      </c>
+      <c r="E156">
+        <v>0.312929</v>
+      </c>
+      <c r="F156">
+        <v>0.006685</v>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>65</v>
+      </c>
+      <c r="B157">
+        <v>9032</v>
+      </c>
+      <c r="C157">
+        <v>0.300946</v>
+      </c>
+      <c r="D157">
+        <v>0.294375</v>
+      </c>
+      <c r="E157">
+        <v>0.3076</v>
+      </c>
+      <c r="F157">
+        <v>0.006654</v>
+      </c>
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>66</v>
+      </c>
+      <c r="B158">
+        <v>9209</v>
+      </c>
+      <c r="C158">
+        <v>0.306844</v>
+      </c>
+      <c r="D158">
+        <v>0.300235</v>
+      </c>
+      <c r="E158">
+        <v>0.313533</v>
+      </c>
+      <c r="F158">
+        <v>0.006689</v>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>63</v>
+      </c>
+      <c r="B162">
+        <v>3029</v>
+      </c>
+      <c r="C162">
+        <v>0.100926</v>
+      </c>
+      <c r="D162">
+        <v>0.096271</v>
+      </c>
+      <c r="E162">
+        <v>0.105781</v>
+      </c>
+      <c r="F162">
+        <v>0.004854</v>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>68</v>
+      </c>
+      <c r="B163">
+        <v>4953</v>
+      </c>
+      <c r="C163">
+        <v>0.165034</v>
+      </c>
+      <c r="D163">
+        <v>0.159258</v>
+      </c>
+      <c r="E163">
+        <v>0.170976</v>
+      </c>
+      <c r="F163">
+        <v>0.005942</v>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>64</v>
+      </c>
+      <c r="B164">
+        <v>4620</v>
+      </c>
+      <c r="C164">
+        <v>0.153938</v>
+      </c>
+      <c r="D164">
+        <v>0.148328</v>
+      </c>
+      <c r="E164">
+        <v>0.159721</v>
+      </c>
+      <c r="F164">
+        <v>0.005782</v>
+      </c>
+      <c r="G164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>69</v>
+      </c>
+      <c r="B165">
+        <v>4902</v>
+      </c>
+      <c r="C165">
+        <v>0.163335</v>
+      </c>
+      <c r="D165">
+        <v>0.157584</v>
+      </c>
+      <c r="E165">
+        <v>0.169253</v>
+      </c>
+      <c r="F165">
+        <v>0.005919</v>
+      </c>
+      <c r="G165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>65</v>
+      </c>
+      <c r="B166">
+        <v>3018</v>
+      </c>
+      <c r="C166">
+        <v>0.10056</v>
+      </c>
+      <c r="D166">
+        <v>0.095912</v>
+      </c>
+      <c r="E166">
+        <v>0.105407</v>
+      </c>
+      <c r="F166">
+        <v>0.004847</v>
+      </c>
+      <c r="G166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>70</v>
+      </c>
+      <c r="B167">
+        <v>2974</v>
+      </c>
+      <c r="C167">
+        <v>0.099094</v>
+      </c>
+      <c r="D167">
+        <v>0.09447700000000001</v>
+      </c>
+      <c r="E167">
+        <v>0.10391</v>
+      </c>
+      <c r="F167">
+        <v>0.004816</v>
+      </c>
+      <c r="G167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>66</v>
+      </c>
+      <c r="B168">
+        <v>3477</v>
+      </c>
+      <c r="C168">
+        <v>0.115854</v>
+      </c>
+      <c r="D168">
+        <v>0.110897</v>
+      </c>
+      <c r="E168">
+        <v>0.121001</v>
+      </c>
+      <c r="F168">
+        <v>0.005148</v>
+      </c>
+      <c r="G168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>71</v>
+      </c>
+      <c r="B169">
+        <v>3039</v>
+      </c>
+      <c r="C169">
+        <v>0.101259</v>
+      </c>
+      <c r="D169">
+        <v>0.096597</v>
+      </c>
+      <c r="E169">
+        <v>0.106121</v>
+      </c>
+      <c r="F169">
+        <v>0.004861</v>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>63</v>
+      </c>
+      <c r="B174">
+        <v>9284</v>
+      </c>
+      <c r="C174">
+        <v>0.309343</v>
+      </c>
+      <c r="D174">
+        <v>0.302719</v>
+      </c>
+      <c r="E174">
+        <v>0.316046</v>
+      </c>
+      <c r="F174">
+        <v>0.006703</v>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>64</v>
+      </c>
+      <c r="B175">
+        <v>9023</v>
+      </c>
+      <c r="C175">
+        <v>0.300646</v>
+      </c>
+      <c r="D175">
+        <v>0.294077</v>
+      </c>
+      <c r="E175">
+        <v>0.307298</v>
+      </c>
+      <c r="F175">
+        <v>0.006652</v>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B176">
+        <v>9161</v>
+      </c>
+      <c r="C176">
+        <v>0.305245</v>
+      </c>
+      <c r="D176">
+        <v>0.298646</v>
+      </c>
+      <c r="E176">
+        <v>0.311924</v>
+      </c>
+      <c r="F176">
+        <v>0.006679</v>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>66</v>
+      </c>
+      <c r="B177">
+        <v>9115</v>
+      </c>
+      <c r="C177">
+        <v>0.303712</v>
+      </c>
+      <c r="D177">
+        <v>0.297123</v>
+      </c>
+      <c r="E177">
+        <v>0.310382</v>
+      </c>
+      <c r="F177">
+        <v>0.00667</v>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>63</v>
+      </c>
+      <c r="B181">
+        <v>3708</v>
+      </c>
+      <c r="C181">
+        <v>0.123551</v>
+      </c>
+      <c r="D181">
+        <v>0.11845</v>
+      </c>
+      <c r="E181">
+        <v>0.128838</v>
+      </c>
+      <c r="F181">
+        <v>0.005288</v>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>68</v>
+      </c>
+      <c r="B182">
+        <v>4253</v>
+      </c>
+      <c r="C182">
+        <v>0.14171</v>
+      </c>
+      <c r="D182">
+        <v>0.136295</v>
+      </c>
+      <c r="E182">
+        <v>0.147304</v>
+      </c>
+      <c r="F182">
+        <v>0.005594</v>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>64</v>
+      </c>
+      <c r="B183">
+        <v>3754</v>
+      </c>
+      <c r="C183">
+        <v>0.125083</v>
+      </c>
+      <c r="D183">
+        <v>0.119955</v>
+      </c>
+      <c r="E183">
+        <v>0.130398</v>
+      </c>
+      <c r="F183">
+        <v>0.005315</v>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>69</v>
+      </c>
+      <c r="B184">
+        <v>4097</v>
+      </c>
+      <c r="C184">
+        <v>0.136512</v>
+      </c>
+      <c r="D184">
+        <v>0.131183</v>
+      </c>
+      <c r="E184">
+        <v>0.142022</v>
+      </c>
+      <c r="F184">
+        <v>0.00551</v>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>65</v>
+      </c>
+      <c r="B185">
+        <v>3712</v>
+      </c>
+      <c r="C185">
+        <v>0.123684</v>
+      </c>
+      <c r="D185">
+        <v>0.118581</v>
+      </c>
+      <c r="E185">
+        <v>0.128974</v>
+      </c>
+      <c r="F185">
+        <v>0.00529</v>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>70</v>
+      </c>
+      <c r="B186">
+        <v>3547</v>
+      </c>
+      <c r="C186">
+        <v>0.118186</v>
+      </c>
+      <c r="D186">
+        <v>0.113185</v>
+      </c>
+      <c r="E186">
+        <v>0.123377</v>
+      </c>
+      <c r="F186">
+        <v>0.005191</v>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>66</v>
+      </c>
+      <c r="B187">
+        <v>3307</v>
+      </c>
+      <c r="C187">
+        <v>0.110189</v>
+      </c>
+      <c r="D187">
+        <v>0.105344</v>
+      </c>
+      <c r="E187">
+        <v>0.115229</v>
+      </c>
+      <c r="F187">
+        <v>0.00504</v>
+      </c>
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>71</v>
+      </c>
+      <c r="B188">
+        <v>3634</v>
+      </c>
+      <c r="C188">
+        <v>0.121085</v>
+      </c>
+      <c r="D188">
+        <v>0.11603</v>
+      </c>
+      <c r="E188">
+        <v>0.126329</v>
+      </c>
+      <c r="F188">
+        <v>0.005244</v>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>63</v>
+      </c>
+      <c r="B193">
+        <v>11956</v>
+      </c>
+      <c r="C193">
+        <v>0.398374</v>
+      </c>
+      <c r="D193">
+        <v>0.391337</v>
+      </c>
+      <c r="E193">
+        <v>0.405453</v>
+      </c>
+      <c r="F193">
+        <v>0.007079</v>
+      </c>
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>64</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0.000208</v>
+      </c>
+      <c r="F194">
+        <v>0.000208</v>
+      </c>
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>65</v>
+      </c>
+      <c r="B195">
+        <v>12122</v>
+      </c>
+      <c r="C195">
+        <v>0.403905</v>
+      </c>
+      <c r="D195">
+        <v>0.396851</v>
+      </c>
+      <c r="E195">
+        <v>0.410999</v>
+      </c>
+      <c r="F195">
+        <v>0.007094</v>
+      </c>
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>66</v>
+      </c>
+      <c r="B196">
+        <v>9459</v>
+      </c>
+      <c r="C196">
+        <v>0.315174</v>
+      </c>
+      <c r="D196">
+        <v>0.308515</v>
+      </c>
+      <c r="E196">
+        <v>0.32191</v>
+      </c>
+      <c r="F196">
+        <v>0.006736</v>
+      </c>
+      <c r="G196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>63</v>
+      </c>
+      <c r="B200">
+        <v>3501</v>
+      </c>
+      <c r="C200">
+        <v>0.116653</v>
+      </c>
+      <c r="D200">
+        <v>0.111682</v>
+      </c>
+      <c r="E200">
+        <v>0.121816</v>
+      </c>
+      <c r="F200">
+        <v>0.005162</v>
+      </c>
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>68</v>
+      </c>
+      <c r="B201">
+        <v>3908</v>
+      </c>
+      <c r="C201">
+        <v>0.130215</v>
+      </c>
+      <c r="D201">
+        <v>0.124995</v>
+      </c>
+      <c r="E201">
+        <v>0.135619</v>
+      </c>
+      <c r="F201">
+        <v>0.005404</v>
+      </c>
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>64</v>
+      </c>
+      <c r="B202">
+        <v>4819</v>
+      </c>
+      <c r="C202">
+        <v>0.160569</v>
+      </c>
+      <c r="D202">
+        <v>0.154859</v>
+      </c>
+      <c r="E202">
+        <v>0.166448</v>
+      </c>
+      <c r="F202">
+        <v>0.005879</v>
+      </c>
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>69</v>
+      </c>
+      <c r="B203">
+        <v>3985</v>
+      </c>
+      <c r="C203">
+        <v>0.13278</v>
+      </c>
+      <c r="D203">
+        <v>0.127516</v>
+      </c>
+      <c r="E203">
+        <v>0.138228</v>
+      </c>
+      <c r="F203">
+        <v>0.005448</v>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>65</v>
+      </c>
+      <c r="B204">
+        <v>3501</v>
+      </c>
+      <c r="C204">
+        <v>0.116653</v>
+      </c>
+      <c r="D204">
+        <v>0.111682</v>
+      </c>
+      <c r="E204">
+        <v>0.121816</v>
+      </c>
+      <c r="F204">
+        <v>0.005162</v>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>70</v>
+      </c>
+      <c r="B205">
+        <v>3255</v>
+      </c>
+      <c r="C205">
+        <v>0.108457</v>
+      </c>
+      <c r="D205">
+        <v>0.103646</v>
+      </c>
+      <c r="E205">
+        <v>0.113463</v>
+      </c>
+      <c r="F205">
+        <v>0.005006</v>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>66</v>
+      </c>
+      <c r="B206">
+        <v>3954</v>
+      </c>
+      <c r="C206">
+        <v>0.131747</v>
+      </c>
+      <c r="D206">
+        <v>0.126501</v>
+      </c>
+      <c r="E206">
+        <v>0.137177</v>
+      </c>
+      <c r="F206">
+        <v>0.00543</v>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>71</v>
+      </c>
+      <c r="B207">
+        <v>3089</v>
+      </c>
+      <c r="C207">
+        <v>0.102925</v>
+      </c>
+      <c r="D207">
+        <v>0.098228</v>
+      </c>
+      <c r="E207">
+        <v>0.107821</v>
+      </c>
+      <c r="F207">
+        <v>0.004895</v>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>63</v>
+      </c>
+      <c r="B212">
+        <v>12048</v>
+      </c>
+      <c r="C212">
+        <v>0.401439</v>
+      </c>
+      <c r="D212">
+        <v>0.394393</v>
+      </c>
+      <c r="E212">
+        <v>0.408527</v>
+      </c>
+      <c r="F212">
+        <v>0.007087</v>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>64</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0.000208</v>
+      </c>
+      <c r="F213">
+        <v>0.000208</v>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>65</v>
+      </c>
+      <c r="B214">
+        <v>12161</v>
+      </c>
+      <c r="C214">
+        <v>0.405205</v>
+      </c>
+      <c r="D214">
+        <v>0.398147</v>
+      </c>
+      <c r="E214">
+        <v>0.412302</v>
+      </c>
+      <c r="F214">
+        <v>0.007097</v>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>66</v>
+      </c>
+      <c r="B215">
+        <v>9373</v>
+      </c>
+      <c r="C215">
+        <v>0.312308</v>
+      </c>
+      <c r="D215">
+        <v>0.305666</v>
+      </c>
+      <c r="E215">
+        <v>0.319028</v>
+      </c>
+      <c r="F215">
+        <v>0.00672</v>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>63</v>
+      </c>
+      <c r="B219">
+        <v>3817</v>
+      </c>
+      <c r="C219">
+        <v>0.127182</v>
+      </c>
+      <c r="D219">
+        <v>0.122016</v>
+      </c>
+      <c r="E219">
+        <v>0.132534</v>
+      </c>
+      <c r="F219">
+        <v>0.005352</v>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>68</v>
+      </c>
+      <c r="B220">
+        <v>3782</v>
+      </c>
+      <c r="C220">
+        <v>0.126016</v>
+      </c>
+      <c r="D220">
+        <v>0.120871</v>
+      </c>
+      <c r="E220">
+        <v>0.131348</v>
+      </c>
+      <c r="F220">
+        <v>0.005331</v>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>64</v>
+      </c>
+      <c r="B221">
+        <v>4478</v>
+      </c>
+      <c r="C221">
+        <v>0.149207</v>
+      </c>
+      <c r="D221">
+        <v>0.143671</v>
+      </c>
+      <c r="E221">
+        <v>0.154918</v>
+      </c>
+      <c r="F221">
+        <v>0.005711</v>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>69</v>
+      </c>
+      <c r="B222">
+        <v>3879</v>
+      </c>
+      <c r="C222">
+        <v>0.129248</v>
+      </c>
+      <c r="D222">
+        <v>0.124045</v>
+      </c>
+      <c r="E222">
+        <v>0.134636</v>
+      </c>
+      <c r="F222">
+        <v>0.005388</v>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>65</v>
+      </c>
+      <c r="B223">
+        <v>3780</v>
+      </c>
+      <c r="C223">
+        <v>0.12595</v>
+      </c>
+      <c r="D223">
+        <v>0.120806</v>
+      </c>
+      <c r="E223">
+        <v>0.13128</v>
+      </c>
+      <c r="F223">
+        <v>0.00533</v>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>70</v>
+      </c>
+      <c r="B224">
+        <v>3275</v>
+      </c>
+      <c r="C224">
+        <v>0.109123</v>
+      </c>
+      <c r="D224">
+        <v>0.104299</v>
+      </c>
+      <c r="E224">
+        <v>0.114142</v>
+      </c>
+      <c r="F224">
+        <v>0.005019</v>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>66</v>
+      </c>
+      <c r="B225">
+        <v>3800</v>
+      </c>
+      <c r="C225">
+        <v>0.126616</v>
+      </c>
+      <c r="D225">
+        <v>0.12146</v>
+      </c>
+      <c r="E225">
+        <v>0.131958</v>
+      </c>
+      <c r="F225">
+        <v>0.005342</v>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>71</v>
+      </c>
+      <c r="B226">
+        <v>3201</v>
+      </c>
+      <c r="C226">
+        <v>0.106657</v>
+      </c>
+      <c r="D226">
+        <v>0.101883</v>
+      </c>
+      <c r="E226">
+        <v>0.111628</v>
+      </c>
+      <c r="F226">
+        <v>0.00497</v>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>63</v>
+      </c>
+      <c r="B231">
+        <v>11953</v>
+      </c>
+      <c r="C231">
+        <v>0.398274</v>
+      </c>
+      <c r="D231">
+        <v>0.391238</v>
+      </c>
+      <c r="E231">
+        <v>0.405353</v>
+      </c>
+      <c r="F231">
+        <v>0.007078</v>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>64</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0.000208</v>
+      </c>
+      <c r="F232">
+        <v>0.000208</v>
+      </c>
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>65</v>
+      </c>
+      <c r="B233">
+        <v>12122</v>
+      </c>
+      <c r="C233">
+        <v>0.403905</v>
+      </c>
+      <c r="D233">
+        <v>0.396851</v>
+      </c>
+      <c r="E233">
+        <v>0.410999</v>
+      </c>
+      <c r="F233">
+        <v>0.007094</v>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>66</v>
+      </c>
+      <c r="B234">
+        <v>9456</v>
+      </c>
+      <c r="C234">
+        <v>0.315074</v>
+      </c>
+      <c r="D234">
+        <v>0.308415</v>
+      </c>
+      <c r="E234">
+        <v>0.321809</v>
+      </c>
+      <c r="F234">
+        <v>0.006735</v>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>63</v>
+      </c>
+      <c r="B238">
+        <v>3468</v>
+      </c>
+      <c r="C238">
+        <v>0.115554</v>
+      </c>
+      <c r="D238">
+        <v>0.110603</v>
+      </c>
+      <c r="E238">
+        <v>0.120696</v>
+      </c>
+      <c r="F238">
+        <v>0.005142</v>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>68</v>
+      </c>
+      <c r="B239">
+        <v>3896</v>
+      </c>
+      <c r="C239">
+        <v>0.129815</v>
+      </c>
+      <c r="D239">
+        <v>0.124602</v>
+      </c>
+      <c r="E239">
+        <v>0.135212</v>
+      </c>
+      <c r="F239">
+        <v>0.005397</v>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>64</v>
+      </c>
+      <c r="B240">
+        <v>4856</v>
+      </c>
+      <c r="C240">
+        <v>0.161802</v>
+      </c>
+      <c r="D240">
+        <v>0.156074</v>
+      </c>
+      <c r="E240">
+        <v>0.167699</v>
+      </c>
+      <c r="F240">
+        <v>0.005897</v>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>69</v>
+      </c>
+      <c r="B241">
+        <v>3975</v>
+      </c>
+      <c r="C241">
+        <v>0.132447</v>
+      </c>
+      <c r="D241">
+        <v>0.127188</v>
+      </c>
+      <c r="E241">
+        <v>0.137889</v>
+      </c>
+      <c r="F241">
+        <v>0.005442</v>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>65</v>
+      </c>
+      <c r="B242">
+        <v>3465</v>
+      </c>
+      <c r="C242">
+        <v>0.115454</v>
+      </c>
+      <c r="D242">
+        <v>0.110505</v>
+      </c>
+      <c r="E242">
+        <v>0.120594</v>
+      </c>
+      <c r="F242">
+        <v>0.00514</v>
+      </c>
+      <c r="G242" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>70</v>
+      </c>
+      <c r="B243">
+        <v>3261</v>
+      </c>
+      <c r="C243">
+        <v>0.108657</v>
+      </c>
+      <c r="D243">
+        <v>0.103842</v>
+      </c>
+      <c r="E243">
+        <v>0.113666</v>
+      </c>
+      <c r="F243">
+        <v>0.00501</v>
+      </c>
+      <c r="G243" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>66</v>
+      </c>
+      <c r="B244">
+        <v>4022</v>
+      </c>
+      <c r="C244">
+        <v>0.134013</v>
+      </c>
+      <c r="D244">
+        <v>0.128727</v>
+      </c>
+      <c r="E244">
+        <v>0.139481</v>
+      </c>
+      <c r="F244">
+        <v>0.005468</v>
+      </c>
+      <c r="G244" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>71</v>
+      </c>
+      <c r="B245">
+        <v>3069</v>
+      </c>
+      <c r="C245">
+        <v>0.102259</v>
+      </c>
+      <c r="D245">
+        <v>0.097575</v>
+      </c>
+      <c r="E245">
+        <v>0.107141</v>
+      </c>
+      <c r="F245">
+        <v>0.004882</v>
+      </c>
+      <c r="G245" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>63</v>
+      </c>
+      <c r="B250">
+        <v>8991</v>
+      </c>
+      <c r="C250">
+        <v>0.29958</v>
+      </c>
+      <c r="D250">
+        <v>0.293018</v>
+      </c>
+      <c r="E250">
+        <v>0.306226</v>
+      </c>
+      <c r="F250">
+        <v>0.006645</v>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>64</v>
+      </c>
+      <c r="B251">
+        <v>9174</v>
+      </c>
+      <c r="C251">
+        <v>0.305678</v>
+      </c>
+      <c r="D251">
+        <v>0.299077</v>
+      </c>
+      <c r="E251">
+        <v>0.31236</v>
+      </c>
+      <c r="F251">
+        <v>0.006682</v>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>65</v>
+      </c>
+      <c r="B252">
+        <v>9306</v>
+      </c>
+      <c r="C252">
+        <v>0.310076</v>
+      </c>
+      <c r="D252">
+        <v>0.303448</v>
+      </c>
+      <c r="E252">
+        <v>0.316783</v>
+      </c>
+      <c r="F252">
+        <v>0.006707</v>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>66</v>
+      </c>
+      <c r="B253">
+        <v>9224</v>
+      </c>
+      <c r="C253">
+        <v>0.307344</v>
+      </c>
+      <c r="D253">
+        <v>0.300732</v>
+      </c>
+      <c r="E253">
+        <v>0.314035</v>
+      </c>
+      <c r="F253">
+        <v>0.006692</v>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G256" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>63</v>
+      </c>
+      <c r="B257">
+        <v>3898</v>
+      </c>
+      <c r="C257">
+        <v>0.129881</v>
+      </c>
+      <c r="D257">
+        <v>0.124667</v>
+      </c>
+      <c r="E257">
+        <v>0.13528</v>
+      </c>
+      <c r="F257">
+        <v>0.005398</v>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>68</v>
+      </c>
+      <c r="B258">
+        <v>3507</v>
+      </c>
+      <c r="C258">
+        <v>0.116853</v>
+      </c>
+      <c r="D258">
+        <v>0.111878</v>
+      </c>
+      <c r="E258">
+        <v>0.122019</v>
+      </c>
+      <c r="F258">
+        <v>0.005166</v>
+      </c>
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>64</v>
+      </c>
+      <c r="B259">
+        <v>4036</v>
+      </c>
+      <c r="C259">
+        <v>0.13448</v>
+      </c>
+      <c r="D259">
+        <v>0.129186</v>
+      </c>
+      <c r="E259">
+        <v>0.139956</v>
+      </c>
+      <c r="F259">
+        <v>0.005476</v>
+      </c>
+      <c r="G259" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>69</v>
+      </c>
+      <c r="B260">
+        <v>3631</v>
+      </c>
+      <c r="C260">
+        <v>0.120985</v>
+      </c>
+      <c r="D260">
+        <v>0.115932</v>
+      </c>
+      <c r="E260">
+        <v>0.126227</v>
+      </c>
+      <c r="F260">
+        <v>0.005242</v>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>65</v>
+      </c>
+      <c r="B261">
+        <v>4016</v>
+      </c>
+      <c r="C261">
+        <v>0.133813</v>
+      </c>
+      <c r="D261">
+        <v>0.128531</v>
+      </c>
+      <c r="E261">
+        <v>0.139278</v>
+      </c>
+      <c r="F261">
+        <v>0.005465</v>
+      </c>
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>70</v>
+      </c>
+      <c r="B262">
+        <v>3449</v>
+      </c>
+      <c r="C262">
+        <v>0.114921</v>
+      </c>
+      <c r="D262">
+        <v>0.109982</v>
+      </c>
+      <c r="E262">
+        <v>0.120051</v>
+      </c>
+      <c r="F262">
+        <v>0.00513</v>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>66</v>
+      </c>
+      <c r="B263">
+        <v>4056</v>
+      </c>
+      <c r="C263">
+        <v>0.135146</v>
+      </c>
+      <c r="D263">
+        <v>0.129841</v>
+      </c>
+      <c r="E263">
+        <v>0.140633</v>
+      </c>
+      <c r="F263">
+        <v>0.005487</v>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>71</v>
+      </c>
+      <c r="B264">
+        <v>3419</v>
+      </c>
+      <c r="C264">
+        <v>0.113921</v>
+      </c>
+      <c r="D264">
+        <v>0.109002</v>
+      </c>
+      <c r="E264">
+        <v>0.119032</v>
+      </c>
+      <c r="F264">
+        <v>0.005111</v>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F268" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G268" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>63</v>
+      </c>
+      <c r="B269">
+        <v>9074</v>
+      </c>
+      <c r="C269">
+        <v>0.302346</v>
+      </c>
+      <c r="D269">
+        <v>0.295766</v>
+      </c>
+      <c r="E269">
+        <v>0.309008</v>
+      </c>
+      <c r="F269">
+        <v>0.006662</v>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>64</v>
+      </c>
+      <c r="B270">
+        <v>9141</v>
+      </c>
+      <c r="C270">
+        <v>0.304578</v>
+      </c>
+      <c r="D270">
+        <v>0.297984</v>
+      </c>
+      <c r="E270">
+        <v>0.311254</v>
+      </c>
+      <c r="F270">
+        <v>0.006675</v>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>65</v>
+      </c>
+      <c r="B271">
+        <v>9262</v>
+      </c>
+      <c r="C271">
+        <v>0.30861</v>
+      </c>
+      <c r="D271">
+        <v>0.30199</v>
+      </c>
+      <c r="E271">
+        <v>0.315309</v>
+      </c>
+      <c r="F271">
+        <v>0.006699</v>
+      </c>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>66</v>
+      </c>
+      <c r="B272">
+        <v>9170</v>
+      </c>
+      <c r="C272">
+        <v>0.305544</v>
+      </c>
+      <c r="D272">
+        <v>0.298944</v>
+      </c>
+      <c r="E272">
+        <v>0.312226</v>
+      </c>
+      <c r="F272">
+        <v>0.006681</v>
+      </c>
+      <c r="G272" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F275" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G275" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>63</v>
+      </c>
+      <c r="B276">
+        <v>3943</v>
+      </c>
+      <c r="C276">
+        <v>0.131381</v>
+      </c>
+      <c r="D276">
+        <v>0.12614</v>
+      </c>
+      <c r="E276">
+        <v>0.136805</v>
+      </c>
+      <c r="F276">
+        <v>0.005424</v>
+      </c>
+      <c r="G276" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>68</v>
+      </c>
+      <c r="B277">
+        <v>3524</v>
+      </c>
+      <c r="C277">
+        <v>0.11742</v>
+      </c>
+      <c r="D277">
+        <v>0.112434</v>
+      </c>
+      <c r="E277">
+        <v>0.122596</v>
+      </c>
+      <c r="F277">
+        <v>0.005177</v>
+      </c>
+      <c r="G277" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>64</v>
+      </c>
+      <c r="B278">
+        <v>4042</v>
+      </c>
+      <c r="C278">
+        <v>0.134679</v>
+      </c>
+      <c r="D278">
+        <v>0.129382</v>
+      </c>
+      <c r="E278">
+        <v>0.140159</v>
+      </c>
+      <c r="F278">
+        <v>0.005479</v>
+      </c>
+      <c r="G278" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>69</v>
+      </c>
+      <c r="B279">
+        <v>3619</v>
+      </c>
+      <c r="C279">
+        <v>0.120585</v>
+      </c>
+      <c r="D279">
+        <v>0.115539</v>
+      </c>
+      <c r="E279">
+        <v>0.12582</v>
+      </c>
+      <c r="F279">
+        <v>0.005235</v>
+      </c>
+      <c r="G279" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>65</v>
+      </c>
+      <c r="B280">
+        <v>3961</v>
+      </c>
+      <c r="C280">
+        <v>0.131981</v>
+      </c>
+      <c r="D280">
+        <v>0.12673</v>
+      </c>
+      <c r="E280">
+        <v>0.137415</v>
+      </c>
+      <c r="F280">
+        <v>0.005434</v>
+      </c>
+      <c r="G280" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>70</v>
+      </c>
+      <c r="B281">
+        <v>3452</v>
+      </c>
+      <c r="C281">
+        <v>0.115021</v>
+      </c>
+      <c r="D281">
+        <v>0.110081</v>
+      </c>
+      <c r="E281">
+        <v>0.120153</v>
+      </c>
+      <c r="F281">
+        <v>0.005132</v>
+      </c>
+      <c r="G281" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>66</v>
+      </c>
+      <c r="B282">
+        <v>4025</v>
+      </c>
+      <c r="C282">
+        <v>0.134113</v>
+      </c>
+      <c r="D282">
+        <v>0.128825</v>
+      </c>
+      <c r="E282">
+        <v>0.139583</v>
+      </c>
+      <c r="F282">
+        <v>0.00547</v>
+      </c>
+      <c r="G282" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>71</v>
+      </c>
+      <c r="B283">
+        <v>3446</v>
+      </c>
+      <c r="C283">
+        <v>0.114821</v>
+      </c>
+      <c r="D283">
+        <v>0.109884</v>
+      </c>
+      <c r="E283">
+        <v>0.119949</v>
+      </c>
+      <c r="F283">
+        <v>0.005128</v>
+      </c>
+      <c r="G283" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F287" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G287" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>63</v>
+      </c>
+      <c r="B288">
+        <v>8903</v>
+      </c>
+      <c r="C288">
+        <v>0.296658</v>
+      </c>
+      <c r="D288">
+        <v>0.290115</v>
+      </c>
+      <c r="E288">
+        <v>0.303285</v>
+      </c>
+      <c r="F288">
+        <v>0.006628</v>
+      </c>
+      <c r="G288" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>64</v>
+      </c>
+      <c r="B289">
+        <v>9276</v>
+      </c>
+      <c r="C289">
+        <v>0.309087</v>
+      </c>
+      <c r="D289">
+        <v>0.302464</v>
+      </c>
+      <c r="E289">
+        <v>0.315789</v>
+      </c>
+      <c r="F289">
+        <v>0.006702</v>
+      </c>
+      <c r="G289" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>65</v>
+      </c>
+      <c r="B290">
+        <v>9028</v>
+      </c>
+      <c r="C290">
+        <v>0.300823</v>
+      </c>
+      <c r="D290">
+        <v>0.294253</v>
+      </c>
+      <c r="E290">
+        <v>0.307476</v>
+      </c>
+      <c r="F290">
+        <v>0.006653</v>
+      </c>
+      <c r="G290" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>66</v>
+      </c>
+      <c r="B291">
+        <v>9227</v>
+      </c>
+      <c r="C291">
+        <v>0.307454</v>
+      </c>
+      <c r="D291">
+        <v>0.300842</v>
+      </c>
+      <c r="E291">
+        <v>0.314146</v>
+      </c>
+      <c r="F291">
+        <v>0.006692</v>
+      </c>
+      <c r="G291" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F294" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G294" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>63</v>
+      </c>
+      <c r="B295">
+        <v>3548</v>
+      </c>
+      <c r="C295">
+        <v>0.118223</v>
+      </c>
+      <c r="D295">
+        <v>0.113222</v>
+      </c>
+      <c r="E295">
+        <v>0.123415</v>
+      </c>
+      <c r="F295">
+        <v>0.005192</v>
+      </c>
+      <c r="G295" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>68</v>
+      </c>
+      <c r="B296">
+        <v>3731</v>
+      </c>
+      <c r="C296">
+        <v>0.124321</v>
+      </c>
+      <c r="D296">
+        <v>0.119207</v>
+      </c>
+      <c r="E296">
+        <v>0.129623</v>
+      </c>
+      <c r="F296">
+        <v>0.005302</v>
+      </c>
+      <c r="G296" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>64</v>
+      </c>
+      <c r="B297">
+        <v>4452</v>
+      </c>
+      <c r="C297">
+        <v>0.148346</v>
+      </c>
+      <c r="D297">
+        <v>0.142823</v>
+      </c>
+      <c r="E297">
+        <v>0.154043</v>
+      </c>
+      <c r="F297">
+        <v>0.005698</v>
+      </c>
+      <c r="G297" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>69</v>
+      </c>
+      <c r="B298">
+        <v>3728</v>
+      </c>
+      <c r="C298">
+        <v>0.124221</v>
+      </c>
+      <c r="D298">
+        <v>0.119108</v>
+      </c>
+      <c r="E298">
+        <v>0.129521</v>
+      </c>
+      <c r="F298">
+        <v>0.0053</v>
+      </c>
+      <c r="G298" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>65</v>
+      </c>
+      <c r="B299">
+        <v>3462</v>
+      </c>
+      <c r="C299">
+        <v>0.115358</v>
+      </c>
+      <c r="D299">
+        <v>0.110411</v>
+      </c>
+      <c r="E299">
+        <v>0.120496</v>
+      </c>
+      <c r="F299">
+        <v>0.005138</v>
+      </c>
+      <c r="G299" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>70</v>
+      </c>
+      <c r="B300">
+        <v>3395</v>
+      </c>
+      <c r="C300">
+        <v>0.113125</v>
+      </c>
+      <c r="D300">
+        <v>0.108222</v>
+      </c>
+      <c r="E300">
+        <v>0.118221</v>
+      </c>
+      <c r="F300">
+        <v>0.005096</v>
+      </c>
+      <c r="G300" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>66</v>
+      </c>
+      <c r="B301">
+        <v>4204</v>
+      </c>
+      <c r="C301">
+        <v>0.140082</v>
+      </c>
+      <c r="D301">
+        <v>0.134693</v>
+      </c>
+      <c r="E301">
+        <v>0.14565</v>
+      </c>
+      <c r="F301">
+        <v>0.005568</v>
+      </c>
+      <c r="G301" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>71</v>
+      </c>
+      <c r="B302">
+        <v>3491</v>
+      </c>
+      <c r="C302">
+        <v>0.116324</v>
+      </c>
+      <c r="D302">
+        <v>0.111359</v>
+      </c>
+      <c r="E302">
+        <v>0.12148</v>
+      </c>
+      <c r="F302">
+        <v>0.005156</v>
+      </c>
+      <c r="G302" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E306" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F306" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G306" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>63</v>
+      </c>
+      <c r="B307">
+        <v>9060</v>
+      </c>
+      <c r="C307">
+        <v>0.301889</v>
+      </c>
+      <c r="D307">
+        <v>0.295312</v>
+      </c>
+      <c r="E307">
+        <v>0.308549</v>
+      </c>
+      <c r="F307">
+        <v>0.00666</v>
+      </c>
+      <c r="G307" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>64</v>
+      </c>
+      <c r="B308">
+        <v>9207</v>
+      </c>
+      <c r="C308">
+        <v>0.306788</v>
+      </c>
+      <c r="D308">
+        <v>0.300179</v>
+      </c>
+      <c r="E308">
+        <v>0.313476</v>
+      </c>
+      <c r="F308">
+        <v>0.006689</v>
+      </c>
+      <c r="G308" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>65</v>
+      </c>
+      <c r="B309">
+        <v>9242</v>
+      </c>
+      <c r="C309">
+        <v>0.307954</v>
+      </c>
+      <c r="D309">
+        <v>0.301338</v>
+      </c>
+      <c r="E309">
+        <v>0.314649</v>
+      </c>
+      <c r="F309">
+        <v>0.006695</v>
+      </c>
+      <c r="G309" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" t="s">
+        <v>66</v>
+      </c>
+      <c r="B310">
+        <v>9014</v>
+      </c>
+      <c r="C310">
+        <v>0.300357</v>
+      </c>
+      <c r="D310">
+        <v>0.293789</v>
+      </c>
+      <c r="E310">
+        <v>0.307007</v>
+      </c>
+      <c r="F310">
+        <v>0.00665</v>
+      </c>
+      <c r="G310" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F313" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G313" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" t="s">
+        <v>63</v>
+      </c>
+      <c r="B314">
+        <v>3995</v>
+      </c>
+      <c r="C314">
+        <v>0.133118</v>
+      </c>
+      <c r="D314">
+        <v>0.127847</v>
+      </c>
+      <c r="E314">
+        <v>0.138571</v>
+      </c>
+      <c r="F314">
+        <v>0.005453</v>
+      </c>
+      <c r="G314" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" t="s">
+        <v>68</v>
+      </c>
+      <c r="B315">
+        <v>3516</v>
+      </c>
+      <c r="C315">
+        <v>0.117157</v>
+      </c>
+      <c r="D315">
+        <v>0.112176</v>
+      </c>
+      <c r="E315">
+        <v>0.122329</v>
+      </c>
+      <c r="F315">
+        <v>0.005172</v>
+      </c>
+      <c r="G315" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>64</v>
+      </c>
+      <c r="B316">
+        <v>4083</v>
+      </c>
+      <c r="C316">
+        <v>0.13605</v>
+      </c>
+      <c r="D316">
+        <v>0.130729</v>
+      </c>
+      <c r="E316">
+        <v>0.141552</v>
+      </c>
+      <c r="F316">
+        <v>0.005502</v>
+      </c>
+      <c r="G316" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" t="s">
+        <v>69</v>
+      </c>
+      <c r="B317">
+        <v>3551</v>
+      </c>
+      <c r="C317">
+        <v>0.118323</v>
+      </c>
+      <c r="D317">
+        <v>0.11332</v>
+      </c>
+      <c r="E317">
+        <v>0.123517</v>
+      </c>
+      <c r="F317">
+        <v>0.005193</v>
+      </c>
+      <c r="G317" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" t="s">
+        <v>65</v>
+      </c>
+      <c r="B318">
+        <v>3904</v>
+      </c>
+      <c r="C318">
+        <v>0.130086</v>
+      </c>
+      <c r="D318">
+        <v>0.124868</v>
+      </c>
+      <c r="E318">
+        <v>0.135488</v>
+      </c>
+      <c r="F318">
+        <v>0.005402</v>
+      </c>
+      <c r="G318" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" t="s">
+        <v>70</v>
+      </c>
+      <c r="B319">
+        <v>3520</v>
+      </c>
+      <c r="C319">
+        <v>0.11729</v>
+      </c>
+      <c r="D319">
+        <v>0.112307</v>
+      </c>
+      <c r="E319">
+        <v>0.122465</v>
+      </c>
+      <c r="F319">
+        <v>0.005174</v>
+      </c>
+      <c r="G319" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" t="s">
+        <v>66</v>
+      </c>
+      <c r="B320">
+        <v>4012</v>
+      </c>
+      <c r="C320">
+        <v>0.133684</v>
+      </c>
+      <c r="D320">
+        <v>0.128404</v>
+      </c>
+      <c r="E320">
+        <v>0.139147</v>
+      </c>
+      <c r="F320">
+        <v>0.005463</v>
+      </c>
+      <c r="G320" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" t="s">
+        <v>71</v>
+      </c>
+      <c r="B321">
+        <v>3430</v>
+      </c>
+      <c r="C321">
+        <v>0.114291</v>
+      </c>
+      <c r="D321">
+        <v>0.109365</v>
+      </c>
+      <c r="E321">
+        <v>0.11941</v>
+      </c>
+      <c r="F321">
+        <v>0.005118</v>
+      </c>
+      <c r="G321" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E325" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F325" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G325" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" t="s">
+        <v>63</v>
+      </c>
+      <c r="B326">
+        <v>8925</v>
+      </c>
+      <c r="C326">
+        <v>0.297391</v>
+      </c>
+      <c r="D326">
+        <v>0.290843</v>
+      </c>
+      <c r="E326">
+        <v>0.304023</v>
+      </c>
+      <c r="F326">
+        <v>0.006632</v>
+      </c>
+      <c r="G326" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" t="s">
+        <v>64</v>
+      </c>
+      <c r="B327">
+        <v>9292</v>
+      </c>
+      <c r="C327">
+        <v>0.30962</v>
+      </c>
+      <c r="D327">
+        <v>0.302994</v>
+      </c>
+      <c r="E327">
+        <v>0.316325</v>
+      </c>
+      <c r="F327">
+        <v>0.006705</v>
+      </c>
+      <c r="G327" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" t="s">
+        <v>65</v>
+      </c>
+      <c r="B328">
+        <v>9131</v>
+      </c>
+      <c r="C328">
+        <v>0.304255</v>
+      </c>
+      <c r="D328">
+        <v>0.297663</v>
+      </c>
+      <c r="E328">
+        <v>0.310929</v>
+      </c>
+      <c r="F328">
+        <v>0.006674</v>
+      </c>
+      <c r="G328" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" t="s">
+        <v>66</v>
+      </c>
+      <c r="B329">
+        <v>9103</v>
+      </c>
+      <c r="C329">
+        <v>0.303322</v>
+      </c>
+      <c r="D329">
+        <v>0.296736</v>
+      </c>
+      <c r="E329">
+        <v>0.30999</v>
+      </c>
+      <c r="F329">
+        <v>0.006668</v>
+      </c>
+      <c r="G329" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E332" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F332" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G332" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" t="s">
+        <v>63</v>
+      </c>
+      <c r="B333">
+        <v>3687</v>
+      </c>
+      <c r="C333">
+        <v>0.122855</v>
+      </c>
+      <c r="D333">
+        <v>0.117767</v>
+      </c>
+      <c r="E333">
+        <v>0.128131</v>
+      </c>
+      <c r="F333">
+        <v>0.005276</v>
+      </c>
+      <c r="G333" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" t="s">
+        <v>68</v>
+      </c>
+      <c r="B334">
+        <v>3736</v>
+      </c>
+      <c r="C334">
+        <v>0.124488</v>
+      </c>
+      <c r="D334">
+        <v>0.11937</v>
+      </c>
+      <c r="E334">
+        <v>0.129792</v>
+      </c>
+      <c r="F334">
+        <v>0.005305</v>
+      </c>
+      <c r="G334" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" t="s">
+        <v>64</v>
+      </c>
+      <c r="B335">
+        <v>4346</v>
+      </c>
+      <c r="C335">
+        <v>0.144814</v>
+      </c>
+      <c r="D335">
+        <v>0.139347</v>
+      </c>
+      <c r="E335">
+        <v>0.150457</v>
+      </c>
+      <c r="F335">
+        <v>0.005643</v>
+      </c>
+      <c r="G335" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" t="s">
+        <v>69</v>
+      </c>
+      <c r="B336">
+        <v>3608</v>
+      </c>
+      <c r="C336">
+        <v>0.120223</v>
+      </c>
+      <c r="D336">
+        <v>0.115184</v>
+      </c>
+      <c r="E336">
+        <v>0.125451</v>
+      </c>
+      <c r="F336">
+        <v>0.005228</v>
+      </c>
+      <c r="G336" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" t="s">
+        <v>65</v>
+      </c>
+      <c r="B337">
+        <v>3620</v>
+      </c>
+      <c r="C337">
+        <v>0.120622</v>
+      </c>
+      <c r="D337">
+        <v>0.115576</v>
+      </c>
+      <c r="E337">
+        <v>0.125858</v>
+      </c>
+      <c r="F337">
+        <v>0.005235</v>
+      </c>
+      <c r="G337" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" t="s">
+        <v>70</v>
+      </c>
+      <c r="B338">
+        <v>3452</v>
+      </c>
+      <c r="C338">
+        <v>0.115024</v>
+      </c>
+      <c r="D338">
+        <v>0.110084</v>
+      </c>
+      <c r="E338">
+        <v>0.120157</v>
+      </c>
+      <c r="F338">
+        <v>0.005132</v>
+      </c>
+      <c r="G338" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" t="s">
+        <v>66</v>
+      </c>
+      <c r="B339">
+        <v>4136</v>
+      </c>
+      <c r="C339">
+        <v>0.137816</v>
+      </c>
+      <c r="D339">
+        <v>0.132465</v>
+      </c>
+      <c r="E339">
+        <v>0.143347</v>
+      </c>
+      <c r="F339">
+        <v>0.005531</v>
+      </c>
+      <c r="G339" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" t="s">
+        <v>71</v>
+      </c>
+      <c r="B340">
+        <v>3426</v>
+      </c>
+      <c r="C340">
+        <v>0.114158</v>
+      </c>
+      <c r="D340">
+        <v>0.109235</v>
+      </c>
+      <c r="E340">
+        <v>0.119274</v>
+      </c>
+      <c r="F340">
+        <v>0.005116</v>
+      </c>
+      <c r="G340" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D344" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E344" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F344" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G344" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" t="s">
+        <v>63</v>
+      </c>
+      <c r="B345">
+        <v>9079</v>
+      </c>
+      <c r="C345">
+        <v>0.302522</v>
+      </c>
+      <c r="D345">
+        <v>0.295941</v>
+      </c>
+      <c r="E345">
+        <v>0.309186</v>
+      </c>
+      <c r="F345">
+        <v>0.006663</v>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" t="s">
+        <v>64</v>
+      </c>
+      <c r="B346">
+        <v>9122</v>
+      </c>
+      <c r="C346">
+        <v>0.303955</v>
+      </c>
+      <c r="D346">
+        <v>0.297365</v>
+      </c>
+      <c r="E346">
+        <v>0.310627</v>
+      </c>
+      <c r="F346">
+        <v>0.006672</v>
+      </c>
+      <c r="G346" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" t="s">
+        <v>65</v>
+      </c>
+      <c r="B347">
+        <v>9238</v>
+      </c>
+      <c r="C347">
+        <v>0.30782</v>
+      </c>
+      <c r="D347">
+        <v>0.301206</v>
+      </c>
+      <c r="E347">
+        <v>0.314515</v>
+      </c>
+      <c r="F347">
+        <v>0.006695</v>
+      </c>
+      <c r="G347" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" t="s">
+        <v>66</v>
+      </c>
+      <c r="B348">
+        <v>9184</v>
+      </c>
+      <c r="C348">
+        <v>0.306021</v>
+      </c>
+      <c r="D348">
+        <v>0.299418</v>
+      </c>
+      <c r="E348">
+        <v>0.312705</v>
+      </c>
+      <c r="F348">
+        <v>0.006684</v>
+      </c>
+      <c r="G348" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E351" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F351" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G351" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" t="s">
+        <v>63</v>
+      </c>
+      <c r="B352">
+        <v>4012</v>
+      </c>
+      <c r="C352">
+        <v>0.133684</v>
+      </c>
+      <c r="D352">
+        <v>0.128404</v>
+      </c>
+      <c r="E352">
+        <v>0.139147</v>
+      </c>
+      <c r="F352">
+        <v>0.005463</v>
+      </c>
+      <c r="G352" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" t="s">
+        <v>68</v>
+      </c>
+      <c r="B353">
+        <v>3533</v>
+      </c>
+      <c r="C353">
+        <v>0.117724</v>
+      </c>
+      <c r="D353">
+        <v>0.112732</v>
+      </c>
+      <c r="E353">
+        <v>0.122906</v>
+      </c>
+      <c r="F353">
+        <v>0.005182</v>
+      </c>
+      <c r="G353" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" t="s">
+        <v>64</v>
+      </c>
+      <c r="B354">
+        <v>3996</v>
+      </c>
+      <c r="C354">
+        <v>0.133151</v>
+      </c>
+      <c r="D354">
+        <v>0.12788</v>
+      </c>
+      <c r="E354">
+        <v>0.138605</v>
+      </c>
+      <c r="F354">
+        <v>0.005454</v>
+      </c>
+      <c r="G354" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" t="s">
+        <v>69</v>
+      </c>
+      <c r="B355">
+        <v>3338</v>
+      </c>
+      <c r="C355">
+        <v>0.111226</v>
+      </c>
+      <c r="D355">
+        <v>0.10636</v>
+      </c>
+      <c r="E355">
+        <v>0.116286</v>
+      </c>
+      <c r="F355">
+        <v>0.00506</v>
+      </c>
+      <c r="G355" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" t="s">
+        <v>65</v>
+      </c>
+      <c r="B356">
+        <v>4051</v>
+      </c>
+      <c r="C356">
+        <v>0.134984</v>
+      </c>
+      <c r="D356">
+        <v>0.129681</v>
+      </c>
+      <c r="E356">
+        <v>0.140468</v>
+      </c>
+      <c r="F356">
+        <v>0.005484</v>
+      </c>
+      <c r="G356" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" t="s">
+        <v>70</v>
+      </c>
+      <c r="B357">
+        <v>3588</v>
+      </c>
+      <c r="C357">
+        <v>0.119556</v>
+      </c>
+      <c r="D357">
+        <v>0.11453</v>
+      </c>
+      <c r="E357">
+        <v>0.124772</v>
+      </c>
+      <c r="F357">
+        <v>0.005216</v>
+      </c>
+      <c r="G357" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" t="s">
+        <v>66</v>
+      </c>
+      <c r="B358">
+        <v>4048</v>
+      </c>
+      <c r="C358">
+        <v>0.134884</v>
+      </c>
+      <c r="D358">
+        <v>0.129583</v>
+      </c>
+      <c r="E358">
+        <v>0.140367</v>
+      </c>
+      <c r="F358">
+        <v>0.005483</v>
+      </c>
+      <c r="G358" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" t="s">
+        <v>71</v>
+      </c>
+      <c r="B359">
+        <v>3445</v>
+      </c>
+      <c r="C359">
+        <v>0.114791</v>
+      </c>
+      <c r="D359">
+        <v>0.109855</v>
+      </c>
+      <c r="E359">
+        <v>0.119919</v>
+      </c>
+      <c r="F359">
+        <v>0.005128</v>
+      </c>
+      <c r="G359" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BDs/BDXL/rep_BDXL_3.00w.xlsx
+++ b/BDs/BDXL/rep_BDXL_3.00w.xlsx
@@ -12909,13 +12909,13 @@
         <v>0.004199463120396802</v>
       </c>
       <c r="D56">
+        <v>9562</v>
+      </c>
+      <c r="E56">
         <v>9200</v>
       </c>
-      <c r="E56">
-        <v>9562</v>
-      </c>
       <c r="F56">
-        <v>-0.012061</v>
+        <v>0.012061</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -12929,13 +12929,13 @@
         <v>0.006552859980761532</v>
       </c>
       <c r="D57">
+        <v>9562</v>
+      </c>
+      <c r="E57">
         <v>9221</v>
       </c>
-      <c r="E57">
-        <v>9562</v>
-      </c>
       <c r="F57">
-        <v>-0.011362</v>
+        <v>0.011362</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -12949,13 +12949,13 @@
         <v>0.002202762344639393</v>
       </c>
       <c r="D58">
+        <v>9575</v>
+      </c>
+      <c r="E58">
         <v>9184</v>
       </c>
-      <c r="E58">
-        <v>9575</v>
-      </c>
       <c r="F58">
-        <v>-0.013028</v>
+        <v>0.013028</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -12989,13 +12989,13 @@
         <v>3.164959788002305E-09</v>
       </c>
       <c r="D60">
+        <v>9177</v>
+      </c>
+      <c r="E60">
         <v>8406</v>
       </c>
-      <c r="E60">
-        <v>9177</v>
-      </c>
       <c r="F60">
-        <v>-0.02569</v>
+        <v>0.02569</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -13009,13 +13009,13 @@
         <v>5.456613346610971E-06</v>
       </c>
       <c r="D61">
+        <v>8987</v>
+      </c>
+      <c r="E61">
         <v>8406</v>
       </c>
-      <c r="E61">
-        <v>8987</v>
-      </c>
       <c r="F61">
-        <v>-0.019359</v>
+        <v>0.019359</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -13049,13 +13049,13 @@
         <v>1.019990369007906E-07</v>
       </c>
       <c r="D63">
+        <v>9088</v>
+      </c>
+      <c r="E63">
         <v>8400</v>
       </c>
-      <c r="E63">
-        <v>9088</v>
-      </c>
       <c r="F63">
-        <v>-0.022924</v>
+        <v>0.022924</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -13069,13 +13069,13 @@
         <v>1.363333613231383E-06</v>
       </c>
       <c r="D64">
+        <v>9020</v>
+      </c>
+      <c r="E64">
         <v>8400</v>
       </c>
-      <c r="E64">
-        <v>9020</v>
-      </c>
       <c r="F64">
-        <v>-0.020658</v>
+        <v>0.020658</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -13109,13 +13109,13 @@
         <v>0.004572676315507523</v>
       </c>
       <c r="D66">
+        <v>9191</v>
+      </c>
+      <c r="E66">
         <v>8840</v>
       </c>
-      <c r="E66">
-        <v>9191</v>
-      </c>
       <c r="F66">
-        <v>-0.011695</v>
+        <v>0.011695</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -13129,13 +13129,13 @@
         <v>0.003078821786493185</v>
       </c>
       <c r="D67">
+        <v>9209</v>
+      </c>
+      <c r="E67">
         <v>8840</v>
       </c>
-      <c r="E67">
-        <v>9209</v>
-      </c>
       <c r="F67">
-        <v>-0.012295</v>
+        <v>0.012295</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -13189,13 +13189,13 @@
         <v>0</v>
       </c>
       <c r="D70">
+        <v>12122</v>
+      </c>
+      <c r="E70">
         <v>0</v>
       </c>
-      <c r="E70">
-        <v>12122</v>
-      </c>
       <c r="F70">
-        <v>-0.403905</v>
+        <v>0.403905</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -13209,13 +13209,13 @@
         <v>0</v>
       </c>
       <c r="D71">
+        <v>9459</v>
+      </c>
+      <c r="E71">
         <v>0</v>
       </c>
-      <c r="E71">
-        <v>9459</v>
-      </c>
       <c r="F71">
-        <v>-0.315174</v>
+        <v>0.315174</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -13289,13 +13289,13 @@
         <v>0</v>
       </c>
       <c r="D75">
+        <v>12161</v>
+      </c>
+      <c r="E75">
         <v>0</v>
       </c>
-      <c r="E75">
-        <v>12161</v>
-      </c>
       <c r="F75">
-        <v>-0.405205</v>
+        <v>0.405205</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -13309,13 +13309,13 @@
         <v>0</v>
       </c>
       <c r="D76">
+        <v>9373</v>
+      </c>
+      <c r="E76">
         <v>0</v>
       </c>
-      <c r="E76">
-        <v>9373</v>
-      </c>
       <c r="F76">
-        <v>-0.312308</v>
+        <v>0.312308</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -13389,13 +13389,13 @@
         <v>0</v>
       </c>
       <c r="D80">
+        <v>12122</v>
+      </c>
+      <c r="E80">
         <v>0</v>
       </c>
-      <c r="E80">
-        <v>12122</v>
-      </c>
       <c r="F80">
-        <v>-0.403905</v>
+        <v>0.403905</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -13409,13 +13409,13 @@
         <v>0</v>
       </c>
       <c r="D81">
+        <v>9456</v>
+      </c>
+      <c r="E81">
         <v>0</v>
       </c>
-      <c r="E81">
-        <v>9456</v>
-      </c>
       <c r="F81">
-        <v>-0.315074</v>
+        <v>0.315074</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -13449,13 +13449,13 @@
         <v>0.002897833039634421</v>
       </c>
       <c r="D83">
+        <v>9276</v>
+      </c>
+      <c r="E83">
         <v>8903</v>
       </c>
-      <c r="E83">
-        <v>9276</v>
-      </c>
       <c r="F83">
-        <v>-0.012429</v>
+        <v>0.012429</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -13469,13 +13469,13 @@
         <v>0.008222082429755787</v>
       </c>
       <c r="D84">
+        <v>9227</v>
+      </c>
+      <c r="E84">
         <v>8903</v>
       </c>
-      <c r="E84">
-        <v>9227</v>
-      </c>
       <c r="F84">
-        <v>-0.010796</v>
+        <v>0.010796</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -13489,13 +13489,13 @@
         <v>0.003346097569778192</v>
       </c>
       <c r="D85">
+        <v>9292</v>
+      </c>
+      <c r="E85">
         <v>8925</v>
       </c>
-      <c r="E85">
-        <v>9292</v>
-      </c>
       <c r="F85">
-        <v>-0.012229</v>
+        <v>0.012229</v>
       </c>
     </row>
   </sheetData>
@@ -13996,13 +13996,13 @@
         <v>0.00431830886840374</v>
       </c>
       <c r="D56">
+        <v>4157</v>
+      </c>
+      <c r="E56">
         <v>3920</v>
       </c>
-      <c r="E56">
-        <v>4157</v>
-      </c>
       <c r="F56">
-        <v>-0.007897</v>
+        <v>0.007897</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -14016,13 +14016,13 @@
         <v>0.002414082300123987</v>
       </c>
       <c r="D57">
+        <v>4157</v>
+      </c>
+      <c r="E57">
         <v>3903</v>
       </c>
-      <c r="E57">
-        <v>4157</v>
-      </c>
       <c r="F57">
-        <v>-0.008463</v>
+        <v>0.008463</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -14096,13 +14096,13 @@
         <v>0.002607346723193376</v>
       </c>
       <c r="D61">
+        <v>4295</v>
+      </c>
+      <c r="E61">
         <v>4039</v>
       </c>
-      <c r="E61">
-        <v>4295</v>
-      </c>
       <c r="F61">
-        <v>-0.008529999999999999</v>
+        <v>0.008529999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -14136,13 +14136,13 @@
         <v>0.0004116561911710967</v>
       </c>
       <c r="D63">
+        <v>4092</v>
+      </c>
+      <c r="E63">
         <v>3794</v>
       </c>
-      <c r="E63">
-        <v>4092</v>
-      </c>
       <c r="F63">
-        <v>-0.009929</v>
+        <v>0.009929</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -14196,13 +14196,13 @@
         <v>3.506562963894227E-06</v>
       </c>
       <c r="D66">
+        <v>4124</v>
+      </c>
+      <c r="E66">
         <v>3725</v>
       </c>
-      <c r="E66">
-        <v>4124</v>
-      </c>
       <c r="F66">
-        <v>-0.013295</v>
+        <v>0.013295</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -14216,13 +14216,13 @@
         <v>0.001589333645117189</v>
       </c>
       <c r="D67">
+        <v>3985</v>
+      </c>
+      <c r="E67">
         <v>3725</v>
       </c>
-      <c r="E67">
-        <v>3985</v>
-      </c>
       <c r="F67">
-        <v>-0.008663000000000001</v>
+        <v>0.008663000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -14256,13 +14256,13 @@
         <v>1.106256324438749E-74</v>
       </c>
       <c r="D69">
+        <v>4620</v>
+      </c>
+      <c r="E69">
         <v>3029</v>
       </c>
-      <c r="E69">
-        <v>4620</v>
-      </c>
       <c r="F69">
-        <v>-0.053012</v>
+        <v>0.053012</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -14276,13 +14276,13 @@
         <v>1.478970682792148E-08</v>
       </c>
       <c r="D70">
+        <v>3477</v>
+      </c>
+      <c r="E70">
         <v>3029</v>
       </c>
-      <c r="E70">
-        <v>3477</v>
-      </c>
       <c r="F70">
-        <v>-0.014927</v>
+        <v>0.014927</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -14336,13 +14336,13 @@
         <v>6.530571644167842E-09</v>
       </c>
       <c r="D73">
+        <v>3477</v>
+      </c>
+      <c r="E73">
         <v>3018</v>
       </c>
-      <c r="E73">
-        <v>3477</v>
-      </c>
       <c r="F73">
-        <v>-0.015294</v>
+        <v>0.015294</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -14576,13 +14576,13 @@
         <v>9.532328230576429E-48</v>
       </c>
       <c r="D85">
+        <v>4819</v>
+      </c>
+      <c r="E85">
         <v>3501</v>
       </c>
-      <c r="E85">
-        <v>4819</v>
-      </c>
       <c r="F85">
-        <v>-0.043916</v>
+        <v>0.043916</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -14596,13 +14596,13 @@
         <v>8.181528687379649E-08</v>
       </c>
       <c r="D86">
+        <v>3954</v>
+      </c>
+      <c r="E86">
         <v>3501</v>
       </c>
-      <c r="E86">
-        <v>3954</v>
-      </c>
       <c r="F86">
-        <v>-0.015094</v>
+        <v>0.015094</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -14656,13 +14656,13 @@
         <v>8.181528687379649E-08</v>
       </c>
       <c r="D89">
+        <v>3954</v>
+      </c>
+      <c r="E89">
         <v>3501</v>
       </c>
-      <c r="E89">
-        <v>3954</v>
-      </c>
       <c r="F89">
-        <v>-0.015094</v>
+        <v>0.015094</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -14756,13 +14756,13 @@
         <v>2.077973237181004E-13</v>
       </c>
       <c r="D94">
+        <v>4478</v>
+      </c>
+      <c r="E94">
         <v>3817</v>
       </c>
-      <c r="E94">
-        <v>4478</v>
-      </c>
       <c r="F94">
-        <v>-0.022025</v>
+        <v>0.022025</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -14896,13 +14896,13 @@
         <v>9.934942187492787E-53</v>
       </c>
       <c r="D101">
+        <v>4856</v>
+      </c>
+      <c r="E101">
         <v>3468</v>
       </c>
-      <c r="E101">
-        <v>4856</v>
-      </c>
       <c r="F101">
-        <v>-0.046248</v>
+        <v>0.046248</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -14916,13 +14916,13 @@
         <v>8.154833517891708E-11</v>
       </c>
       <c r="D102">
+        <v>4022</v>
+      </c>
+      <c r="E102">
         <v>3468</v>
       </c>
-      <c r="E102">
-        <v>4022</v>
-      </c>
       <c r="F102">
-        <v>-0.018459</v>
+        <v>0.018459</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -14976,13 +14976,13 @@
         <v>6.43949497848437E-11</v>
       </c>
       <c r="D105">
+        <v>4022</v>
+      </c>
+      <c r="E105">
         <v>3465</v>
       </c>
-      <c r="E105">
-        <v>4022</v>
-      </c>
       <c r="F105">
-        <v>-0.018559</v>
+        <v>0.018559</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -15116,13 +15116,13 @@
         <v>2.584656876577319E-24</v>
       </c>
       <c r="D112">
+        <v>4452</v>
+      </c>
+      <c r="E112">
         <v>3548</v>
       </c>
-      <c r="E112">
-        <v>4452</v>
-      </c>
       <c r="F112">
-        <v>-0.030122</v>
+        <v>0.030122</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -15136,13 +15136,13 @@
         <v>4.895281658510855E-14</v>
       </c>
       <c r="D113">
+        <v>4204</v>
+      </c>
+      <c r="E113">
         <v>3548</v>
       </c>
-      <c r="E113">
-        <v>4204</v>
-      </c>
       <c r="F113">
-        <v>-0.021859</v>
+        <v>0.021859</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -15196,13 +15196,13 @@
         <v>1.230089393381353E-17</v>
       </c>
       <c r="D116">
+        <v>4204</v>
+      </c>
+      <c r="E116">
         <v>3462</v>
       </c>
-      <c r="E116">
-        <v>4204</v>
-      </c>
       <c r="F116">
-        <v>-0.024724</v>
+        <v>0.024724</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -15296,13 +15296,13 @@
         <v>1.024375808050767E-13</v>
       </c>
       <c r="D121">
+        <v>4346</v>
+      </c>
+      <c r="E121">
         <v>3687</v>
       </c>
-      <c r="E121">
-        <v>4346</v>
-      </c>
       <c r="F121">
-        <v>-0.021959</v>
+        <v>0.021959</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -15316,13 +15316,13 @@
         <v>2.026295842199478E-07</v>
       </c>
       <c r="D122">
+        <v>4136</v>
+      </c>
+      <c r="E122">
         <v>3687</v>
       </c>
-      <c r="E122">
-        <v>4136</v>
-      </c>
       <c r="F122">
-        <v>-0.014961</v>
+        <v>0.014961</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -15356,13 +15356,13 @@
         <v>2.460337947336043E-09</v>
       </c>
       <c r="D124">
+        <v>4136</v>
+      </c>
+      <c r="E124">
         <v>3620</v>
       </c>
-      <c r="E124">
-        <v>4136</v>
-      </c>
       <c r="F124">
-        <v>-0.017194</v>
+        <v>0.017194</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -15416,13 +15416,13 @@
         <v>0.001384590743680066</v>
       </c>
       <c r="D127">
+        <v>3588</v>
+      </c>
+      <c r="E127">
         <v>3338</v>
       </c>
-      <c r="E127">
-        <v>3588</v>
-      </c>
       <c r="F127">
-        <v>-0.008330000000000001</v>
+        <v>0.008330000000000001</v>
       </c>
     </row>
   </sheetData>
